--- a/src/excely/EEFBC000.xlsx
+++ b/src/excely/EEFBC000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MatFyz\V_SEMESTER\BOGE\form-versions\src\excely\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395A909-E840-4F02-A572-CB0AFC12ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC771D00-6C98-46A8-A9BF-6E61E10DC64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22810" yWindow="-15670" windowWidth="18460" windowHeight="12590" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="18984" windowHeight="11004" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DVP Internal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <r>
       <t>F</t>
@@ -2428,145 +2428,145 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4166,7 +4166,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -4271,162 +4271,162 @@
       <c r="CR1" s="5"/>
     </row>
     <row r="2" spans="1:99" s="6" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="287" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="301" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="285" t="s">
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="295" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="300" t="s">
+      <c r="P2" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="292" t="s">
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="293"/>
-      <c r="Z2" s="285" t="s">
+      <c r="U2" s="277"/>
+      <c r="V2" s="277"/>
+      <c r="W2" s="277"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="295" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="300" t="s">
+      <c r="AA2" s="276" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="293"/>
-      <c r="AE2" s="289" t="s">
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="290"/>
-      <c r="AG2" s="290"/>
-      <c r="AH2" s="290"/>
-      <c r="AI2" s="290"/>
-      <c r="AJ2" s="290"/>
-      <c r="AK2" s="290"/>
-      <c r="AL2" s="290"/>
-      <c r="AM2" s="291"/>
-      <c r="AN2" s="285" t="s">
+      <c r="AF2" s="300"/>
+      <c r="AG2" s="300"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="300"/>
+      <c r="AJ2" s="300"/>
+      <c r="AK2" s="300"/>
+      <c r="AL2" s="300"/>
+      <c r="AM2" s="301"/>
+      <c r="AN2" s="295" t="s">
         <v>101</v>
       </c>
-      <c r="AO2" s="294" t="s">
+      <c r="AO2" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="295"/>
-      <c r="AQ2" s="295"/>
-      <c r="AR2" s="294" t="s">
+      <c r="AP2" s="285"/>
+      <c r="AQ2" s="285"/>
+      <c r="AR2" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="295"/>
-      <c r="AT2" s="306"/>
-      <c r="AU2" s="294" t="s">
+      <c r="AS2" s="285"/>
+      <c r="AT2" s="286"/>
+      <c r="AU2" s="284" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="295"/>
-      <c r="AW2" s="295"/>
-      <c r="AX2" s="310" t="s">
+      <c r="AV2" s="285"/>
+      <c r="AW2" s="285"/>
+      <c r="AX2" s="271" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" s="311"/>
-      <c r="AZ2" s="311"/>
-      <c r="BA2" s="312"/>
-      <c r="BB2" s="272" t="s">
+      <c r="AY2" s="272"/>
+      <c r="AZ2" s="272"/>
+      <c r="BA2" s="273"/>
+      <c r="BB2" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="277" t="s">
+      <c r="BC2" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="278"/>
-      <c r="BE2" s="304" t="s">
+      <c r="BD2" s="312"/>
+      <c r="BE2" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="BF2" s="274" t="s">
+      <c r="BF2" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="BG2" s="276"/>
-      <c r="BH2" s="272" t="s">
+      <c r="BG2" s="270"/>
+      <c r="BH2" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="BI2" s="274" t="s">
+      <c r="BI2" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="276"/>
-      <c r="BK2" s="272" t="s">
+      <c r="BJ2" s="270"/>
+      <c r="BK2" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="BL2" s="274" t="s">
+      <c r="BL2" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="BM2" s="275"/>
-      <c r="BN2" s="276"/>
-      <c r="BO2" s="272" t="s">
+      <c r="BM2" s="310"/>
+      <c r="BN2" s="270"/>
+      <c r="BO2" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="BP2" s="274" t="s">
+      <c r="BP2" s="269" t="s">
         <v>51</v>
       </c>
-      <c r="BQ2" s="276"/>
-      <c r="BR2" s="272" t="s">
+      <c r="BQ2" s="270"/>
+      <c r="BR2" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="BS2" s="274" t="s">
+      <c r="BS2" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="BT2" s="275"/>
-      <c r="BU2" s="275"/>
-      <c r="BV2" s="275"/>
-      <c r="BW2" s="276"/>
-      <c r="BX2" s="272" t="s">
+      <c r="BT2" s="310"/>
+      <c r="BU2" s="310"/>
+      <c r="BV2" s="310"/>
+      <c r="BW2" s="270"/>
+      <c r="BX2" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="BY2" s="274" t="s">
+      <c r="BY2" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="BZ2" s="276"/>
-      <c r="CA2" s="272" t="s">
+      <c r="BZ2" s="270"/>
+      <c r="CA2" s="274" t="s">
         <v>52</v>
       </c>
-      <c r="CB2" s="274" t="s">
+      <c r="CB2" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="CC2" s="275"/>
-      <c r="CD2" s="276"/>
-      <c r="CE2" s="272" t="s">
+      <c r="CC2" s="310"/>
+      <c r="CD2" s="270"/>
+      <c r="CE2" s="274" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="307" t="s">
+      <c r="CF2" s="266" t="s">
         <v>53</v>
       </c>
-      <c r="CG2" s="308"/>
-      <c r="CH2" s="308"/>
-      <c r="CI2" s="309"/>
-      <c r="CJ2" s="272" t="s">
+      <c r="CG2" s="267"/>
+      <c r="CH2" s="267"/>
+      <c r="CI2" s="268"/>
+      <c r="CJ2" s="274" t="s">
         <v>53</v>
       </c>
       <c r="CK2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="CL2" s="270" t="s">
+      <c r="CL2" s="308" t="s">
         <v>54</v>
       </c>
       <c r="CM2" s="52" t="s">
@@ -4454,13 +4454,13 @@
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="282" t="s">
+      <c r="E3" s="290" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="298" t="s">
+      <c r="F3" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="299"/>
+      <c r="G3" s="305"/>
       <c r="H3" s="7" t="s">
         <v>84</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="N3" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="286"/>
+      <c r="O3" s="296"/>
       <c r="P3" s="252" t="s">
         <v>88</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="Y3" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="286"/>
+      <c r="Z3" s="296"/>
       <c r="AA3" s="187" t="s">
         <v>88</v>
       </c>
@@ -4526,44 +4526,44 @@
       <c r="AD3" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="296" t="s">
+      <c r="AE3" s="302" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="297"/>
+      <c r="AF3" s="303"/>
       <c r="AG3" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="288" t="s">
+      <c r="AH3" s="298" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="288"/>
-      <c r="AJ3" s="288" t="s">
+      <c r="AI3" s="298"/>
+      <c r="AJ3" s="298" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" s="288"/>
-      <c r="AL3" s="288" t="s">
+      <c r="AK3" s="298"/>
+      <c r="AL3" s="298" t="s">
         <v>111</v>
       </c>
-      <c r="AM3" s="288"/>
-      <c r="AN3" s="286"/>
-      <c r="AO3" s="268" t="s">
+      <c r="AM3" s="298"/>
+      <c r="AN3" s="296"/>
+      <c r="AO3" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="269"/>
+      <c r="AP3" s="294"/>
       <c r="AQ3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="AR3" s="268" t="s">
+      <c r="AR3" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="269"/>
+      <c r="AS3" s="294"/>
       <c r="AT3" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="AU3" s="268" t="s">
+      <c r="AU3" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="269"/>
+      <c r="AV3" s="294"/>
       <c r="AW3" s="190" t="s">
         <v>58</v>
       </c>
@@ -4579,28 +4579,28 @@
       <c r="BA3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="273"/>
+      <c r="BB3" s="275"/>
       <c r="BC3" s="193" t="s">
         <v>60</v>
       </c>
       <c r="BD3" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="BE3" s="305"/>
+      <c r="BE3" s="283"/>
       <c r="BF3" s="194" t="s">
         <v>0</v>
       </c>
       <c r="BG3" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="BH3" s="273"/>
+      <c r="BH3" s="275"/>
       <c r="BI3" s="194" t="s">
         <v>0</v>
       </c>
       <c r="BJ3" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="BK3" s="273"/>
+      <c r="BK3" s="275"/>
       <c r="BL3" s="196" t="s">
         <v>50</v>
       </c>
@@ -4610,14 +4610,14 @@
       <c r="BN3" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="BO3" s="273"/>
+      <c r="BO3" s="275"/>
       <c r="BP3" s="194" t="s">
         <v>63</v>
       </c>
       <c r="BQ3" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="273"/>
+      <c r="BR3" s="275"/>
       <c r="BS3" s="197" t="s">
         <v>64</v>
       </c>
@@ -4631,14 +4631,14 @@
       <c r="BW3" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="BX3" s="273"/>
+      <c r="BX3" s="275"/>
       <c r="BY3" s="194" t="s">
         <v>72</v>
       </c>
       <c r="BZ3" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="CA3" s="273"/>
+      <c r="CA3" s="275"/>
       <c r="CB3" s="199" t="s">
         <v>27</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="CD3" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="CE3" s="273"/>
+      <c r="CE3" s="275"/>
       <c r="CF3" s="201" t="s">
         <v>32</v>
       </c>
@@ -4661,13 +4661,13 @@
       <c r="CI3" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="CJ3" s="273"/>
+      <c r="CJ3" s="275"/>
       <c r="CK3" s="202"/>
-      <c r="CL3" s="271"/>
+      <c r="CL3" s="309"/>
       <c r="CM3" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="CN3" s="266" t="s">
+      <c r="CN3" s="306" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       <c r="B4" s="27"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="283"/>
+      <c r="E4" s="291"/>
       <c r="F4" s="246"/>
       <c r="G4" s="205"/>
       <c r="H4" s="27"/>
@@ -4692,7 +4692,7 @@
       <c r="N4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="287"/>
+      <c r="O4" s="297"/>
       <c r="P4" s="253" t="s">
         <v>93</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="Y4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="287"/>
+      <c r="Z4" s="297"/>
       <c r="AA4" s="164" t="s">
         <v>93</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="AM4" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="287"/>
+      <c r="AN4" s="297"/>
       <c r="AO4" s="63" t="s">
         <v>9</v>
       </c>
@@ -4799,24 +4799,24 @@
       <c r="BA4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="273"/>
+      <c r="BB4" s="275"/>
       <c r="BC4" s="51"/>
       <c r="BD4" s="51"/>
-      <c r="BE4" s="305"/>
+      <c r="BE4" s="283"/>
       <c r="BF4" s="47" t="s">
         <v>93</v>
       </c>
       <c r="BG4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="273"/>
+      <c r="BH4" s="275"/>
       <c r="BI4" s="47" t="s">
         <v>15</v>
       </c>
       <c r="BJ4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="BK4" s="273"/>
+      <c r="BK4" s="275"/>
       <c r="BL4" s="45" t="s">
         <v>60</v>
       </c>
@@ -4826,14 +4826,14 @@
       <c r="BN4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="BO4" s="273"/>
+      <c r="BO4" s="275"/>
       <c r="BP4" s="47" t="s">
         <v>17</v>
       </c>
       <c r="BQ4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="BR4" s="273"/>
+      <c r="BR4" s="275"/>
       <c r="BS4" s="47" t="s">
         <v>17</v>
       </c>
@@ -4847,27 +4847,27 @@
         <v>21</v>
       </c>
       <c r="BW4" s="48"/>
-      <c r="BX4" s="273"/>
+      <c r="BX4" s="275"/>
       <c r="BY4" s="47" t="s">
         <v>60</v>
       </c>
       <c r="BZ4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="CA4" s="273"/>
+      <c r="CA4" s="275"/>
       <c r="CB4" s="50"/>
       <c r="CC4" s="50"/>
       <c r="CD4" s="49"/>
-      <c r="CE4" s="273"/>
+      <c r="CE4" s="275"/>
       <c r="CF4" s="35"/>
       <c r="CG4" s="219"/>
       <c r="CH4" s="220"/>
       <c r="CI4" s="221"/>
-      <c r="CJ4" s="273"/>
+      <c r="CJ4" s="275"/>
       <c r="CK4" s="8"/>
       <c r="CL4" s="23"/>
       <c r="CM4" s="24"/>
-      <c r="CN4" s="267"/>
+      <c r="CN4" s="307"/>
     </row>
     <row r="5" spans="1:99" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A5" s="40" t="s">
@@ -4882,7 +4882,7 @@
       <c r="D5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="283"/>
+      <c r="E5" s="291"/>
       <c r="F5" s="247" t="s">
         <v>40</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="283"/>
+      <c r="E6" s="291"/>
       <c r="F6" s="248"/>
       <c r="G6" s="21"/>
       <c r="H6" s="36"/>
@@ -5144,7 +5144,7 @@
       <c r="B7" s="54"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="284"/>
+      <c r="E7" s="292"/>
       <c r="F7" s="249"/>
       <c r="G7" s="55"/>
       <c r="H7" s="56"/>
@@ -5615,10 +5615,18 @@
       <c r="CO9" s="265"/>
     </row>
     <row r="10" spans="1:99" ht="13.8" thickBot="1">
-      <c r="A10" s="259"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="260"/>
+      <c r="A10" s="259">
+        <v>44083</v>
+      </c>
+      <c r="B10" s="259" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="259" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="260" t="s">
+        <v>117</v>
+      </c>
       <c r="E10" s="160"/>
       <c r="F10" s="160"/>
       <c r="G10" s="161"/>
@@ -5657,7 +5665,9 @@
       <c r="AN10" s="79"/>
       <c r="AO10" s="83"/>
       <c r="AP10" s="66"/>
-      <c r="AQ10" s="34"/>
+      <c r="AQ10" s="34">
+        <v>2</v>
+      </c>
       <c r="AR10" s="67"/>
       <c r="AS10" s="66"/>
       <c r="AT10" s="34"/>
@@ -18683,33 +18693,6 @@
   </sheetData>
   <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="43">
-    <mergeCell ref="CF2:CI2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="CN3:CN4"/>
     <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AU3:AV3"/>
@@ -18726,6 +18709,33 @@
     <mergeCell ref="BY2:BZ2"/>
     <mergeCell ref="BK2:BK4"/>
     <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="CF2:CI2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="BB2:BB4"/>
   </mergeCells>
   <conditionalFormatting sqref="O9 AN9">
     <cfRule type="cellIs" dxfId="173" priority="1471" operator="equal">
